--- a/readme.xlsx
+++ b/readme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\secureLoginPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5513A243-0E77-4812-8866-1427AFE292A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24855C9E-8D3A-4BA5-A5D1-EDA1390267BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77771DAF-7578-4112-B957-C43CB8E3514D}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
